--- a/Sr-data.xlsx
+++ b/Sr-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian\Documents\budding research\strontium box model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\manuscripts\Oman-Strontium\strontium box model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1759A-A32D-4D90-A817-E7E1F82445BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC904467-C032-48F5-B214-2BCC8012C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{AC07220A-8FC3-41D0-BA28-684FA9770DA5}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{AC07220A-8FC3-41D0-BA28-684FA9770DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="106">
   <si>
     <t>Formation</t>
   </si>
@@ -80,25 +80,7 @@
     <t>Cryogenian</t>
   </si>
   <si>
-    <t>F2304-0.75A</t>
-  </si>
-  <si>
     <t>barite</t>
-  </si>
-  <si>
-    <t>F2305-A #1</t>
-  </si>
-  <si>
-    <t>F2305-A #2</t>
-  </si>
-  <si>
-    <t>F2305-A#1</t>
-  </si>
-  <si>
-    <t>F2305-A#2</t>
-  </si>
-  <si>
-    <t>F2305-A 2-14</t>
   </si>
   <si>
     <t>F2408-0.5BR</t>
@@ -108,12 +90,6 @@
   </si>
   <si>
     <t>calcite</t>
-  </si>
-  <si>
-    <t>F2305-A</t>
-  </si>
-  <si>
-    <t>F2408-0.5B</t>
   </si>
   <si>
     <t>F2306-0.1</t>
@@ -338,19 +314,46 @@
     <t>Section</t>
   </si>
   <si>
-    <t>F2304</t>
+    <t>mixing</t>
   </si>
   <si>
-    <t>F2305</t>
+    <t>F2305-1 rep1</t>
   </si>
   <si>
-    <t>F2408</t>
+    <t>F2305-1 rep2</t>
   </si>
   <si>
-    <t>F2306</t>
+    <t>F2305-1 rep3</t>
   </si>
   <si>
-    <t>mixing</t>
+    <t>F2305-2 rep1</t>
+  </si>
+  <si>
+    <t>F2305-2 rep2</t>
+  </si>
+  <si>
+    <t>F2305-3 rep1</t>
+  </si>
+  <si>
+    <t>F2305-3 rep2</t>
+  </si>
+  <si>
+    <t>F2305-3 rep3</t>
+  </si>
+  <si>
+    <t>F2304-0.75A rep1</t>
+  </si>
+  <si>
+    <t>F2304-0.75A rep2</t>
+  </si>
+  <si>
+    <t>F2304-0.75A rep3</t>
+  </si>
+  <si>
+    <t>F2304-0.75A rep4</t>
+  </si>
+  <si>
+    <t>dolomite</t>
   </si>
 </sst>
 </file>
@@ -358,9 +361,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -396,17 +399,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,13 +1522,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>121642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>430610</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>37107</xdr:rowOff>
@@ -1872,11 +1876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A28437-E035-41A1-BF5E-5F0E0BAA4871}">
-  <dimension ref="A1:Z265"/>
+  <dimension ref="A1:X262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S34" sqref="S34"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K231" sqref="K231:K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1887,11 +1891,11 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1929,8 +1933,10 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1940,18 +1946,16 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>584.48500000000001</v>
@@ -1969,11 +1973,13 @@
         <v>0.707951</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1983,18 +1989,16 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26">
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>587.84400000000005</v>
@@ -2012,11 +2016,13 @@
         <v>0.70779499999999995</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2026,18 +2032,16 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>588.05200000000002</v>
@@ -2055,11 +2059,13 @@
         <v>0.70779300000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2069,18 +2075,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>588.26</v>
@@ -2098,11 +2102,13 @@
         <v>0.70783300000000005</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2112,18 +2118,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>588.67499999999995</v>
@@ -2141,11 +2145,13 @@
         <v>0.707646</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2155,18 +2161,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>588.88300000000004</v>
@@ -2184,11 +2188,13 @@
         <v>0.70779700000000001</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2198,18 +2204,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>589.29899999999998</v>
@@ -2227,11 +2231,13 @@
         <v>0.70780900000000002</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2241,18 +2247,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>589.50599999999997</v>
@@ -2270,11 +2274,13 @@
         <v>0.70780299999999996</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2284,18 +2290,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>589.61</v>
@@ -2307,11 +2311,13 @@
         <v>0.70785200000000004</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2321,18 +2327,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>589.71400000000006</v>
@@ -2350,11 +2354,13 @@
         <v>0.70777199999999996</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2364,18 +2370,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>589.92200000000003</v>
@@ -2393,11 +2397,13 @@
         <v>0.70778399999999997</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2407,18 +2413,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>590.23400000000004</v>
@@ -2436,11 +2440,13 @@
         <v>0.70778600000000003</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2450,18 +2456,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>592.24199999999996</v>
@@ -2479,11 +2483,13 @@
         <v>0.70789299999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2493,18 +2499,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>593.93899999999996</v>
@@ -2522,11 +2526,13 @@
         <v>0.70783600000000002</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2536,18 +2542,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26">
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>595.221</v>
@@ -2565,11 +2569,13 @@
         <v>0.70783399999999996</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2579,18 +2585,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26">
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>595.74</v>
@@ -2608,11 +2612,13 @@
         <v>0.70769000000000004</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2622,18 +2628,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26">
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>596.15599999999995</v>
@@ -2651,11 +2655,13 @@
         <v>0.70771300000000004</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2665,18 +2671,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>596.36400000000003</v>
@@ -2694,11 +2698,13 @@
         <v>0.70782500000000004</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2708,18 +2714,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>598.303</v>
@@ -2737,11 +2741,13 @@
         <v>0.70788300000000004</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2751,18 +2757,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>600</v>
@@ -2780,11 +2784,13 @@
         <v>0.70782599999999996</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2794,24 +2800,22 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>632.52200000000005</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>26.5</v>
@@ -2820,11 +2824,13 @@
         <v>0.70758200000000004</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2834,24 +2840,22 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>632.54300000000001</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>22.5</v>
@@ -2860,11 +2864,13 @@
         <v>0.707619</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2874,24 +2880,22 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>632.54899999999998</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F24">
         <v>21.5</v>
@@ -2900,11 +2904,13 @@
         <v>0.707565</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2914,24 +2920,22 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>632.56200000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <v>19</v>
@@ -2940,11 +2944,13 @@
         <v>0.70766799999999996</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
       </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2954,24 +2960,22 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>632.57799999999997</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>16</v>
@@ -2980,11 +2984,13 @@
         <v>0.70772699999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2994,24 +3000,22 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>635.11900000000003</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F27">
         <v>32</v>
@@ -3020,11 +3024,13 @@
         <v>0.70758600000000005</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3034,24 +3040,22 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>635.12599999999998</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>29.5</v>
@@ -3060,11 +3064,13 @@
         <v>0.70762499999999995</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3074,24 +3080,22 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>635.13199999999995</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -3100,11 +3104,13 @@
         <v>0.70760400000000001</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3114,24 +3120,22 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>635.14099999999996</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F30">
         <v>23.5</v>
@@ -3140,11 +3144,13 @@
         <v>0.70758799999999999</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3154,24 +3160,22 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26">
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>635.14700000000005</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F31">
         <v>21</v>
@@ -3180,11 +3184,13 @@
         <v>0.70759799999999995</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3194,24 +3200,22 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26">
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>635.154</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>18.5</v>
@@ -3220,11 +3224,13 @@
         <v>0.70756200000000002</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3234,24 +3240,22 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26">
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>635.16</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3260,11 +3264,13 @@
         <v>0.70761499999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3274,24 +3280,22 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26">
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>635.178</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F34">
         <v>9.1999999999999993</v>
@@ -3300,11 +3304,13 @@
         <v>0.70764499999999997</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3314,18 +3320,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26">
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>644.28800000000001</v>
@@ -3346,11 +3350,13 @@
         <v>0.70725899999999997</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3360,18 +3366,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26">
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>644.45299999999997</v>
@@ -3392,11 +3396,13 @@
         <v>0.70722099999999999</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3406,18 +3412,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26">
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>645.27499999999998</v>
@@ -3438,11 +3442,13 @@
         <v>0.70728899999999995</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3452,18 +3458,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26">
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>646.34500000000003</v>
@@ -3484,11 +3488,13 @@
         <v>0.70727200000000001</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3498,18 +3504,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26">
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>648.40200000000004</v>
@@ -3530,11 +3534,13 @@
         <v>0.70730000000000004</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3544,18 +3550,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26">
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>649.14300000000003</v>
@@ -3576,11 +3580,13 @@
         <v>0.70731500000000003</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3590,18 +3596,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26">
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>650.45899999999995</v>
@@ -3622,12 +3626,13 @@
         <v>0.70733500000000005</v>
       </c>
       <c r="L41" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3637,18 +3642,16 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26">
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>651.36400000000003</v>
@@ -3669,11 +3672,13 @@
         <v>0.70735499999999996</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
       </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3683,18 +3688,16 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26">
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>652.43399999999997</v>
@@ -3715,11 +3718,13 @@
         <v>0.70738500000000004</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3729,18 +3734,16 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26">
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D44">
         <v>652.928</v>
@@ -3761,11 +3764,13 @@
         <v>0.707283</v>
       </c>
       <c r="L44" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3775,18 +3780,16 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26">
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <v>653.25699999999995</v>
@@ -3807,11 +3810,13 @@
         <v>0.70727300000000004</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3821,18 +3826,16 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26">
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>653.42100000000005</v>
@@ -3853,12 +3856,13 @@
         <v>0.70718300000000001</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3868,18 +3872,16 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26">
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>653.54499999999996</v>
@@ -3900,11 +3902,13 @@
         <v>0.707237</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -3914,18 +3918,16 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26">
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>653.62699999999995</v>
@@ -3946,11 +3948,13 @@
         <v>0.70722799999999997</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3960,18 +3964,16 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26">
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D49">
         <v>653.70899999999995</v>
@@ -3992,11 +3994,13 @@
         <v>0.707264</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4006,18 +4010,16 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26">
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>653.79200000000003</v>
@@ -4038,11 +4040,13 @@
         <v>0.70721299999999998</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -4052,18 +4056,16 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>653.83299999999997</v>
@@ -4084,11 +4086,13 @@
         <v>0.70716999999999997</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
       </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -4098,18 +4102,16 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <v>653.91499999999996</v>
@@ -4130,11 +4132,13 @@
         <v>0.70721699999999998</v>
       </c>
       <c r="L52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -4144,18 +4148,16 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>654.08000000000004</v>
@@ -4176,11 +4178,13 @@
         <v>0.70715899999999998</v>
       </c>
       <c r="L53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
       </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4190,18 +4194,16 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>654.24400000000003</v>
@@ -4222,11 +4224,13 @@
         <v>0.70714699999999997</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
       </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4236,18 +4240,16 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26">
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D55">
         <v>654.40899999999999</v>
@@ -4268,11 +4270,13 @@
         <v>0.707175</v>
       </c>
       <c r="L55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
       </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4282,18 +4286,16 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>654.57299999999998</v>
@@ -4314,11 +4316,13 @@
         <v>0.70716100000000004</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -4328,18 +4332,16 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26">
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>654.90300000000002</v>
@@ -4360,11 +4362,13 @@
         <v>0.707264</v>
       </c>
       <c r="L57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
       </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -4374,18 +4378,16 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26">
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>655.06700000000001</v>
@@ -4406,11 +4408,13 @@
         <v>0.707206</v>
       </c>
       <c r="L58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -4420,18 +4424,16 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26">
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>655.23199999999997</v>
@@ -4452,11 +4454,13 @@
         <v>0.70712200000000003</v>
       </c>
       <c r="L59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
       </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -4466,18 +4470,16 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26">
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>655.31399999999996</v>
@@ -4498,11 +4500,13 @@
         <v>0.70716699999999999</v>
       </c>
       <c r="L60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
       </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -4512,18 +4516,16 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26">
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D61">
         <v>655.47900000000004</v>
@@ -4544,11 +4546,13 @@
         <v>0.70710700000000004</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
       </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -4558,18 +4562,16 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26">
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>655.64300000000003</v>
@@ -4590,11 +4592,13 @@
         <v>0.70720799999999995</v>
       </c>
       <c r="L62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
       </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4604,18 +4608,16 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26">
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D63">
         <v>655.80799999999999</v>
@@ -4636,11 +4638,13 @@
         <v>0.70719500000000002</v>
       </c>
       <c r="L63" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
       </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -4650,18 +4654,16 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26">
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D64">
         <v>656.05499999999995</v>
@@ -4682,11 +4684,13 @@
         <v>0.70717099999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
       </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -4696,18 +4700,16 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26">
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <v>656.38400000000001</v>
@@ -4728,11 +4730,13 @@
         <v>0.70715099999999997</v>
       </c>
       <c r="L65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M65" t="b">
         <v>0</v>
       </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -4742,18 +4746,16 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26">
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D66">
         <v>656.63</v>
@@ -4774,11 +4776,13 @@
         <v>0.70714399999999999</v>
       </c>
       <c r="L66" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
       </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -4788,18 +4792,16 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26">
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D67">
         <v>656.87699999999995</v>
@@ -4820,11 +4822,13 @@
         <v>0.70719299999999996</v>
       </c>
       <c r="L67" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -4834,18 +4838,16 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26">
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D68">
         <v>657.33</v>
@@ -4866,11 +4868,13 @@
         <v>0.70704299999999998</v>
       </c>
       <c r="L68" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
       </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -4880,20 +4884,18 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="1:26">
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="6">
+        <v>54</v>
+      </c>
+      <c r="D69" s="4">
         <v>659.20160439999995</v>
       </c>
       <c r="E69" t="s">
@@ -4912,23 +4914,23 @@
         <v>0.70715300000000003</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="6">
+        <v>54</v>
+      </c>
+      <c r="D70" s="4">
         <v>659.61332966999998</v>
       </c>
       <c r="E70" t="s">
@@ -4947,23 +4949,23 @@
         <v>0.70728599999999997</v>
       </c>
       <c r="L70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="6">
+        <v>54</v>
+      </c>
+      <c r="D71" s="4">
         <v>660.43678021999995</v>
       </c>
       <c r="E71" t="s">
@@ -4982,21 +4984,21 @@
         <v>0.70726500000000003</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D72">
         <v>660.94</v>
@@ -5017,21 +5019,21 @@
         <v>0.70736699999999997</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D73">
         <v>660.96</v>
@@ -5052,21 +5054,21 @@
         <v>0.70690399999999998</v>
       </c>
       <c r="L73" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D74">
         <v>660.98</v>
@@ -5087,21 +5089,21 @@
         <v>0.70681400000000005</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D75">
         <v>660.99</v>
@@ -5122,21 +5124,21 @@
         <v>0.70672699999999999</v>
       </c>
       <c r="L75" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>539.36099999999999</v>
@@ -5148,21 +5150,21 @@
         <v>0.70857400000000004</v>
       </c>
       <c r="L76" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D77">
         <v>539.43299999999999</v>
@@ -5174,21 +5176,21 @@
         <v>0.70845800000000003</v>
       </c>
       <c r="L77" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D78">
         <v>539.66999999999996</v>
@@ -5200,21 +5202,21 @@
         <v>0.70856200000000003</v>
       </c>
       <c r="L78" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D79">
         <v>539.93600000000004</v>
@@ -5226,21 +5228,21 @@
         <v>0.70843</v>
       </c>
       <c r="L79" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D80">
         <v>540.07899999999995</v>
@@ -5252,7 +5254,7 @@
         <v>0.70855299999999999</v>
       </c>
       <c r="L80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
@@ -5260,13 +5262,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D81">
         <v>541.20600000000002</v>
@@ -5278,7 +5280,7 @@
         <v>0.70842499999999997</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -5286,13 +5288,13 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D82">
         <v>541.24199999999996</v>
@@ -5304,7 +5306,7 @@
         <v>0.70852700000000002</v>
       </c>
       <c r="L82" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
@@ -5312,13 +5314,13 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D83">
         <v>541.24199999999996</v>
@@ -5330,7 +5332,7 @@
         <v>0.70841699999999996</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
@@ -5338,13 +5340,13 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D84">
         <v>541.38599999999997</v>
@@ -5356,7 +5358,7 @@
         <v>0.70852999999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
@@ -5364,13 +5366,13 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D85">
         <v>642</v>
@@ -5385,7 +5387,7 @@
         <v>0.70724699999999996</v>
       </c>
       <c r="L85" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -5393,13 +5395,13 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D86">
         <v>642.94799999999998</v>
@@ -5414,7 +5416,7 @@
         <v>0.707345</v>
       </c>
       <c r="L86" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -5422,15 +5424,15 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="6">
+        <v>75</v>
+      </c>
+      <c r="D87" s="4">
         <v>659.7048241</v>
       </c>
       <c r="E87" t="s">
@@ -5443,7 +5445,7 @@
         <v>0.70722399999999996</v>
       </c>
       <c r="L87" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -5451,15 +5453,15 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="6">
+        <v>75</v>
+      </c>
+      <c r="D88" s="4">
         <v>659.93356043999995</v>
       </c>
       <c r="E88" t="s">
@@ -5472,7 +5474,7 @@
         <v>0.70716400000000001</v>
       </c>
       <c r="L88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
@@ -5480,15 +5482,15 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="6">
+        <v>75</v>
+      </c>
+      <c r="D89" s="4">
         <v>660.16229669999996</v>
       </c>
       <c r="E89" t="s">
@@ -5501,7 +5503,7 @@
         <v>0.70720000000000005</v>
       </c>
       <c r="L89" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M89" t="b">
         <v>0</v>
@@ -5509,15 +5511,15 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="6">
+        <v>75</v>
+      </c>
+      <c r="D90" s="4">
         <v>660.39103296999997</v>
       </c>
       <c r="E90" t="s">
@@ -5530,7 +5532,7 @@
         <v>0.707094</v>
       </c>
       <c r="L90" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
@@ -5538,15 +5540,15 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="6">
+        <v>75</v>
+      </c>
+      <c r="D91" s="4">
         <v>660.75701099000003</v>
       </c>
       <c r="E91" t="s">
@@ -5559,7 +5561,7 @@
         <v>0.70704999999999996</v>
       </c>
       <c r="L91" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
@@ -5567,13 +5569,13 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D92">
         <v>660.93</v>
@@ -5588,7 +5590,7 @@
         <v>0.70694400000000002</v>
       </c>
       <c r="L92" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
@@ -5596,13 +5598,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D93">
         <v>660.95</v>
@@ -5617,7 +5619,7 @@
         <v>0.70699000000000001</v>
       </c>
       <c r="L93" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M93" t="b">
         <v>1</v>
@@ -5625,13 +5627,13 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D94">
         <v>661</v>
@@ -5646,7 +5648,7 @@
         <v>0.70675399999999999</v>
       </c>
       <c r="L94" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M94" t="b">
         <v>1</v>
@@ -5654,13 +5656,13 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D95">
         <v>660.97</v>
@@ -5675,7 +5677,7 @@
         <v>0.70679599999999998</v>
       </c>
       <c r="L95" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M95" t="b">
         <v>1</v>
@@ -5683,13 +5685,13 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D96">
         <v>742.58900000000006</v>
@@ -5704,7 +5706,7 @@
         <v>0.70679000000000003</v>
       </c>
       <c r="L96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M96" t="b">
         <v>0</v>
@@ -5712,13 +5714,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D97">
         <v>742.72299999999996</v>
@@ -5733,7 +5735,7 @@
         <v>0.70662000000000003</v>
       </c>
       <c r="L97" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
@@ -5741,13 +5743,13 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D98">
         <v>742.79100000000005</v>
@@ -5762,7 +5764,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="L98" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
@@ -5770,13 +5772,13 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <v>742.92499999999995</v>
@@ -5791,7 +5793,7 @@
         <v>0.70667999999999997</v>
       </c>
       <c r="L99" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M99" t="b">
         <v>0</v>
@@ -5799,13 +5801,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D100">
         <v>742.99300000000005</v>
@@ -5820,7 +5822,7 @@
         <v>0.70701000000000003</v>
       </c>
       <c r="L100" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
@@ -5828,13 +5830,13 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D101">
         <v>743.12699999999995</v>
@@ -5849,7 +5851,7 @@
         <v>0.70669000000000004</v>
       </c>
       <c r="L101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
@@ -5857,25 +5859,25 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D102">
         <v>734.77099999999996</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F102">
         <v>208.3</v>
       </c>
       <c r="H102" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I102">
         <v>-2.1800000000000002</v>
@@ -5887,7 +5889,7 @@
         <v>0.70669000000000004</v>
       </c>
       <c r="L102" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
@@ -5895,19 +5897,19 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D103">
         <v>634.22</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F103">
         <v>186.7</v>
@@ -5922,7 +5924,7 @@
         <v>0.70755000000000001</v>
       </c>
       <c r="L103" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
@@ -5930,19 +5932,19 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D104">
         <v>634.351</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F104">
         <v>158.5</v>
@@ -5957,7 +5959,7 @@
         <v>0.70752000000000004</v>
       </c>
       <c r="L104" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
@@ -5965,19 +5967,19 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D105">
         <v>634.39</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F105">
         <v>151.19999999999999</v>
@@ -5986,7 +5988,7 @@
         <v>0.70755999999999997</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
@@ -5994,19 +5996,19 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" s="4">
+        <v>56</v>
+      </c>
+      <c r="D106" s="2">
         <v>634.39599999999996</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F106">
         <v>150.19999999999999</v>
@@ -6015,7 +6017,7 @@
         <v>0.70755999999999997</v>
       </c>
       <c r="L106" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
@@ -6023,19 +6025,19 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D107">
         <v>634.44100000000003</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F107">
         <v>141.69999999999999</v>
@@ -6050,7 +6052,7 @@
         <v>0.70743999999999996</v>
       </c>
       <c r="L107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
@@ -6058,19 +6060,19 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D108">
         <v>634.53300000000002</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F108">
         <v>124.5</v>
@@ -6085,7 +6087,7 @@
         <v>0.70765999999999996</v>
       </c>
       <c r="L108" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
@@ -6093,19 +6095,19 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D109">
         <v>634.63699999999994</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F109">
         <v>105.2</v>
@@ -6114,7 +6116,7 @@
         <v>0.70755999999999997</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
@@ -6122,19 +6124,19 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D110">
         <v>634.68200000000002</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F110">
         <v>96.7</v>
@@ -6149,7 +6151,7 @@
         <v>0.70748</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
@@ -6157,19 +6159,19 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="5">
+        <v>56</v>
+      </c>
+      <c r="D111" s="3">
         <v>634.68499999999995</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F111">
         <v>96.2</v>
@@ -6184,7 +6186,7 @@
         <v>0.70748</v>
       </c>
       <c r="L111" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
@@ -6192,19 +6194,19 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D112">
         <v>634.72900000000004</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F112">
         <v>87.9</v>
@@ -6219,7 +6221,7 @@
         <v>0.70757999999999999</v>
       </c>
       <c r="L112" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
@@ -6227,19 +6229,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D113">
         <v>634.74900000000002</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F113">
         <v>84.2</v>
@@ -6254,7 +6256,7 @@
         <v>0.70804999999999996</v>
       </c>
       <c r="L113" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
@@ -6262,19 +6264,19 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D114">
         <v>634.80100000000004</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F114">
         <v>74.400000000000006</v>
@@ -6283,7 +6285,7 @@
         <v>0.70804999999999996</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
@@ -6291,19 +6293,19 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D115">
         <v>635.09199999999998</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F115">
         <v>20.2</v>
@@ -6318,7 +6320,7 @@
         <v>0.70716999999999997</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
@@ -6326,13 +6328,13 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>651</v>
@@ -6341,7 +6343,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I116">
         <v>9.5</v>
@@ -6353,7 +6355,7 @@
         <v>0.70718000000000003</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
@@ -6361,13 +6363,13 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D117">
         <v>652</v>
@@ -6382,7 +6384,7 @@
         <v>0.70712399999999997</v>
       </c>
       <c r="L117" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
@@ -6390,37 +6392,37 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D118">
         <v>635.20000000000005</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F118">
         <v>1.72</v>
       </c>
       <c r="H118" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I118">
         <v>-4.5</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>0.70713999999999999</v>
       </c>
       <c r="L118" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M118" t="b">
         <v>0</v>
@@ -6428,37 +6430,37 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D119">
         <v>635.20000000000005</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F119">
         <v>1.7</v>
       </c>
       <c r="H119" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I119">
         <v>-4</v>
       </c>
       <c r="J119" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>0.70716000000000001</v>
       </c>
       <c r="L119" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
@@ -6466,37 +6468,37 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D120">
         <v>635.20000000000005</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F120">
         <v>1.53</v>
       </c>
       <c r="H120" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I120">
         <v>-4.0999999999999996</v>
       </c>
       <c r="J120" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>0.70716000000000001</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
@@ -6504,37 +6506,37 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D121">
         <v>635.20000000000005</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F121">
         <v>0.14000000000000001</v>
       </c>
       <c r="H121" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I121">
         <v>-4.7</v>
       </c>
       <c r="J121" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K121">
         <v>0.70713999999999999</v>
       </c>
       <c r="L121" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M121" t="b">
         <v>0</v>
@@ -6542,13 +6544,13 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D122">
         <v>641</v>
@@ -6557,7 +6559,7 @@
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I122">
         <v>-5.49</v>
@@ -6566,7 +6568,7 @@
         <v>0.70720000000000005</v>
       </c>
       <c r="L122" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M122" t="b">
         <v>0</v>
@@ -6574,13 +6576,13 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D123">
         <v>641.1</v>
@@ -6589,13 +6591,13 @@
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K123">
         <v>0.70730999999999999</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
@@ -6603,13 +6605,13 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D124">
         <v>641.20000000000005</v>
@@ -6618,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I124">
         <v>-5.62</v>
@@ -6627,7 +6629,7 @@
         <v>0.70718000000000003</v>
       </c>
       <c r="L124" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
@@ -6635,13 +6637,13 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D125">
         <v>641.74300000000005</v>
@@ -6662,7 +6664,7 @@
         <v>0.70735000000000003</v>
       </c>
       <c r="L125" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
@@ -6670,13 +6672,13 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D126">
         <v>641.74300000000005</v>
@@ -6697,7 +6699,7 @@
         <v>0.70725000000000005</v>
       </c>
       <c r="L126" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
@@ -6705,25 +6707,25 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D127">
         <v>734.20799999999997</v>
       </c>
       <c r="E127" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F127">
         <v>303.8</v>
       </c>
       <c r="H127" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I127">
         <v>8.07</v>
@@ -6735,7 +6737,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L127" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
@@ -6743,25 +6745,25 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D128">
         <v>734.28499999999997</v>
       </c>
       <c r="E128" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F128">
         <v>291.2</v>
       </c>
       <c r="H128" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I128">
         <v>7.64</v>
@@ -6773,7 +6775,7 @@
         <v>0.70662999999999998</v>
       </c>
       <c r="L128" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -6781,25 +6783,25 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D129">
         <v>734.35</v>
       </c>
       <c r="E129" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F129">
         <v>280.60000000000002</v>
       </c>
       <c r="H129" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I129">
         <v>5.13</v>
@@ -6811,7 +6813,7 @@
         <v>0.70674000000000003</v>
       </c>
       <c r="L129" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -6819,25 +6821,25 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D130">
         <v>734.46</v>
       </c>
       <c r="E130" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F130">
         <v>262.5</v>
       </c>
       <c r="H130" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I130">
         <v>6.41</v>
@@ -6849,7 +6851,7 @@
         <v>0.70664000000000005</v>
       </c>
       <c r="L130" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -6857,13 +6859,13 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D131">
         <v>736.85500000000002</v>
@@ -6878,7 +6880,7 @@
         <v>0.70674000000000003</v>
       </c>
       <c r="L131" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
@@ -6886,13 +6888,13 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D132">
         <v>737.19500000000005</v>
@@ -6904,7 +6906,7 @@
         <v>0.70672000000000001</v>
       </c>
       <c r="L132" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
@@ -6912,19 +6914,19 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D133">
         <v>718.12599999999998</v>
       </c>
       <c r="E133" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F133">
         <v>4425.5</v>
@@ -6939,7 +6941,7 @@
         <v>0.70603000000000005</v>
       </c>
       <c r="L133" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M133" t="b">
         <v>0</v>
@@ -6947,19 +6949,19 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D134">
         <v>725.88499999999999</v>
       </c>
       <c r="E134" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F134">
         <v>4138.2</v>
@@ -6974,7 +6976,7 @@
         <v>0.70647000000000004</v>
       </c>
       <c r="L134" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M134" t="b">
         <v>0</v>
@@ -6982,19 +6984,19 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D135">
         <v>726.02</v>
       </c>
       <c r="E135" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F135">
         <v>4133.2</v>
@@ -7009,7 +7011,7 @@
         <v>0.70645000000000002</v>
       </c>
       <c r="L135" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
@@ -7017,19 +7019,19 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C136" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D136">
         <v>726.14</v>
       </c>
       <c r="E136" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F136">
         <v>4128.8</v>
@@ -7044,7 +7046,7 @@
         <v>0.70633999999999997</v>
       </c>
       <c r="L136" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
@@ -7052,19 +7054,19 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D137">
         <v>727.91099999999994</v>
       </c>
       <c r="E137" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F137">
         <v>4063.2</v>
@@ -7079,7 +7081,7 @@
         <v>0.70630999999999999</v>
       </c>
       <c r="L137" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M137" t="b">
         <v>0</v>
@@ -7087,19 +7089,19 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D138">
         <v>727.95699999999999</v>
       </c>
       <c r="E138" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F138">
         <v>4061.5</v>
@@ -7114,7 +7116,7 @@
         <v>0.70631999999999995</v>
       </c>
       <c r="L138" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
@@ -7122,19 +7124,19 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D139">
         <v>728.14599999999996</v>
       </c>
       <c r="E139" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F139">
         <v>4054.5</v>
@@ -7149,7 +7151,7 @@
         <v>0.70660999999999996</v>
       </c>
       <c r="L139" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M139" t="b">
         <v>0</v>
@@ -7157,19 +7159,19 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D140">
         <v>728.21600000000001</v>
       </c>
       <c r="E140" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F140">
         <v>4051.9</v>
@@ -7184,7 +7186,7 @@
         <v>0.70669000000000004</v>
       </c>
       <c r="L140" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M140" t="b">
         <v>0</v>
@@ -7192,19 +7194,19 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D141">
         <v>728.21600000000001</v>
       </c>
       <c r="E141" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F141">
         <v>4051.9</v>
@@ -7219,7 +7221,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L141" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M141" t="b">
         <v>0</v>
@@ -7227,19 +7229,19 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D142">
         <v>728.41300000000001</v>
       </c>
       <c r="E142" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F142">
         <v>4044.6</v>
@@ -7254,7 +7256,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L142" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M142" t="b">
         <v>0</v>
@@ -7262,19 +7264,19 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D143">
         <v>728.62400000000002</v>
       </c>
       <c r="E143" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F143">
         <v>4036.8</v>
@@ -7289,7 +7291,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L143" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M143" t="b">
         <v>0</v>
@@ -7297,19 +7299,19 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D144">
         <v>728.62400000000002</v>
       </c>
       <c r="E144" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F144">
         <v>4036.8</v>
@@ -7324,7 +7326,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L144" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M144" t="b">
         <v>0</v>
@@ -7332,19 +7334,19 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D145">
         <v>729.29300000000001</v>
       </c>
       <c r="E145" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F145">
         <v>4012</v>
@@ -7359,7 +7361,7 @@
         <v>0.70650000000000002</v>
       </c>
       <c r="L145" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -7367,19 +7369,19 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C146" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D146">
         <v>729.68</v>
       </c>
       <c r="E146" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F146">
         <v>3997.7</v>
@@ -7394,7 +7396,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L146" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M146" t="b">
         <v>0</v>
@@ -7402,19 +7404,19 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D147">
         <v>729.92</v>
       </c>
       <c r="E147" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147">
         <v>3988.8</v>
@@ -7429,7 +7431,7 @@
         <v>0.70677999999999996</v>
       </c>
       <c r="L147" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M147" t="b">
         <v>0</v>
@@ -7437,19 +7439,19 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C148" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D148">
         <v>730.13599999999997</v>
       </c>
       <c r="E148" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F148">
         <v>3980.8</v>
@@ -7464,7 +7466,7 @@
         <v>0.70669000000000004</v>
       </c>
       <c r="L148" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M148" t="b">
         <v>0</v>
@@ -7472,19 +7474,19 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D149">
         <v>730.77300000000002</v>
       </c>
       <c r="E149" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F149">
         <v>3957.2</v>
@@ -7499,7 +7501,7 @@
         <v>0.70665</v>
       </c>
       <c r="L149" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M149" t="b">
         <v>0</v>
@@ -7507,19 +7509,19 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D150">
         <v>730.77300000000002</v>
       </c>
       <c r="E150" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F150">
         <v>3957.2</v>
@@ -7534,7 +7536,7 @@
         <v>0.70664000000000005</v>
       </c>
       <c r="L150" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M150" t="b">
         <v>0</v>
@@ -7542,19 +7544,19 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D151">
         <v>731.29200000000003</v>
       </c>
       <c r="E151" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F151">
         <v>3938</v>
@@ -7569,7 +7571,7 @@
         <v>0.70670999999999995</v>
       </c>
       <c r="L151" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M151" t="b">
         <v>0</v>
@@ -7577,19 +7579,19 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D152">
         <v>731.94</v>
       </c>
       <c r="E152" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F152">
         <v>3914</v>
@@ -7604,7 +7606,7 @@
         <v>0.70660000000000001</v>
       </c>
       <c r="L152" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M152" t="b">
         <v>0</v>
@@ -7612,19 +7614,19 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C153" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D153">
         <v>732.16399999999999</v>
       </c>
       <c r="E153" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F153">
         <v>3905.7</v>
@@ -7639,7 +7641,7 @@
         <v>0.70659000000000005</v>
       </c>
       <c r="L153" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M153" t="b">
         <v>0</v>
@@ -7647,19 +7649,19 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D154">
         <v>732.577</v>
       </c>
       <c r="E154" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F154">
         <v>3890.4</v>
@@ -7674,7 +7676,7 @@
         <v>0.70657999999999999</v>
       </c>
       <c r="L154" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M154" t="b">
         <v>0</v>
@@ -7682,19 +7684,19 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C155" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D155">
         <v>733.29</v>
       </c>
       <c r="E155" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F155">
         <v>3864</v>
@@ -7709,7 +7711,7 @@
         <v>0.70650999999999997</v>
       </c>
       <c r="L155" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M155" t="b">
         <v>0</v>
@@ -7717,19 +7719,19 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D156">
         <v>733.72799999999995</v>
       </c>
       <c r="E156" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F156">
         <v>3847.8</v>
@@ -7744,7 +7746,7 @@
         <v>0.70653999999999995</v>
       </c>
       <c r="L156" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M156" t="b">
         <v>0</v>
@@ -7752,19 +7754,19 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C157" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D157">
         <v>733.86300000000006</v>
       </c>
       <c r="E157" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F157">
         <v>3842.8</v>
@@ -7779,7 +7781,7 @@
         <v>0.70643</v>
       </c>
       <c r="L157" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M157" t="b">
         <v>0</v>
@@ -7787,19 +7789,19 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D158">
         <v>733.93899999999996</v>
       </c>
       <c r="E158" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F158">
         <v>3840</v>
@@ -7814,7 +7816,7 @@
         <v>0.70657000000000003</v>
       </c>
       <c r="L158" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M158" t="b">
         <v>0</v>
@@ -7822,19 +7824,19 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C159" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D159">
         <v>734.31899999999996</v>
       </c>
       <c r="E159" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F159">
         <v>3825.9</v>
@@ -7849,7 +7851,7 @@
         <v>0.70650000000000002</v>
       </c>
       <c r="L159" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M159" t="b">
         <v>0</v>
@@ -7857,19 +7859,19 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C160" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D160">
         <v>734.48699999999997</v>
       </c>
       <c r="E160" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F160">
         <v>3819.7</v>
@@ -7884,7 +7886,7 @@
         <v>0.70640000000000003</v>
       </c>
       <c r="L160" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M160" t="b">
         <v>0</v>
@@ -7892,19 +7894,19 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C161" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D161">
         <v>734.69200000000001</v>
       </c>
       <c r="E161" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F161">
         <v>3812.1</v>
@@ -7919,7 +7921,7 @@
         <v>0.70633000000000001</v>
       </c>
       <c r="L161" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M161" t="b">
         <v>0</v>
@@ -7927,19 +7929,19 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C162" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D162">
         <v>734.70299999999997</v>
       </c>
       <c r="E162" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F162">
         <v>3811.7</v>
@@ -7954,7 +7956,7 @@
         <v>0.70648999999999995</v>
       </c>
       <c r="L162" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M162" t="b">
         <v>0</v>
@@ -7962,19 +7964,19 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D163">
         <v>734.74599999999998</v>
       </c>
       <c r="E163" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F163">
         <v>3810.1</v>
@@ -7989,7 +7991,7 @@
         <v>0.70652999999999999</v>
       </c>
       <c r="L163" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M163" t="b">
         <v>0</v>
@@ -7997,19 +7999,19 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D164">
         <v>734.9</v>
       </c>
       <c r="E164" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F164">
         <v>3804.4</v>
@@ -8024,7 +8026,7 @@
         <v>0.70645000000000002</v>
       </c>
       <c r="L164" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M164" t="b">
         <v>0</v>
@@ -8032,19 +8034,19 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D165">
         <v>734.94299999999998</v>
       </c>
       <c r="E165" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F165">
         <v>3802.8</v>
@@ -8059,7 +8061,7 @@
         <v>0.70657000000000003</v>
       </c>
       <c r="L165" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M165" t="b">
         <v>0</v>
@@ -8067,19 +8069,19 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D166">
         <v>734.95399999999995</v>
       </c>
       <c r="E166" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F166">
         <v>3802.4</v>
@@ -8094,7 +8096,7 @@
         <v>0.70642000000000005</v>
       </c>
       <c r="L166" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M166" t="b">
         <v>0</v>
@@ -8102,13 +8104,13 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D167">
         <v>660.94400000000098</v>
@@ -8129,7 +8131,7 @@
         <v>0.70687</v>
       </c>
       <c r="L167" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M167" t="b">
         <v>0</v>
@@ -8137,13 +8139,13 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D168">
         <v>660.94600000000105</v>
@@ -8164,7 +8166,7 @@
         <v>0.70684000000000002</v>
       </c>
       <c r="L168" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M168" t="b">
         <v>0</v>
@@ -8172,13 +8174,13 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D169">
         <v>660.948000000001</v>
@@ -8199,7 +8201,7 @@
         <v>0.70682999999999996</v>
       </c>
       <c r="L169" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M169" t="b">
         <v>0</v>
@@ -8207,13 +8209,13 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D170">
         <v>660.95000000000095</v>
@@ -8234,7 +8236,7 @@
         <v>0.70681000000000005</v>
       </c>
       <c r="L170" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M170" t="b">
         <v>1</v>
@@ -8242,13 +8244,13 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D171">
         <v>660.95200000000102</v>
@@ -8269,7 +8271,7 @@
         <v>0.70691999999999999</v>
       </c>
       <c r="L171" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M171" t="b">
         <v>1</v>
@@ -8277,13 +8279,13 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D172">
         <v>660.95400000000097</v>
@@ -8304,7 +8306,7 @@
         <v>0.70684000000000002</v>
       </c>
       <c r="L172" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M172" t="b">
         <v>1</v>
@@ -8312,13 +8314,13 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C173" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D173">
         <v>660.95600000000104</v>
@@ -8339,7 +8341,7 @@
         <v>0.70682999999999996</v>
       </c>
       <c r="L173" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M173" t="b">
         <v>1</v>
@@ -8347,13 +8349,13 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D174">
         <v>660.95800000000099</v>
@@ -8374,7 +8376,7 @@
         <v>0.70679000000000003</v>
       </c>
       <c r="L174" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M174" t="b">
         <v>1</v>
@@ -8382,13 +8384,13 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C175" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D175">
         <v>660.96000000000095</v>
@@ -8409,7 +8411,7 @@
         <v>0.70677000000000001</v>
       </c>
       <c r="L175" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M175" t="b">
         <v>1</v>
@@ -8417,13 +8419,13 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C176" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D176">
         <v>660.96200000000101</v>
@@ -8444,7 +8446,7 @@
         <v>0.70691999999999999</v>
       </c>
       <c r="L176" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M176" t="b">
         <v>1</v>
@@ -8452,13 +8454,13 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C177" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D177">
         <v>660.96400000000096</v>
@@ -8479,7 +8481,7 @@
         <v>0.70681000000000005</v>
       </c>
       <c r="L177" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M177" t="b">
         <v>1</v>
@@ -8487,13 +8489,13 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C178" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D178">
         <v>660.96600000000103</v>
@@ -8514,7 +8516,7 @@
         <v>0.70679000000000003</v>
       </c>
       <c r="L178" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M178" t="b">
         <v>1</v>
@@ -8522,13 +8524,13 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D179">
         <v>660.96800000000098</v>
@@ -8549,7 +8551,7 @@
         <v>0.70676000000000005</v>
       </c>
       <c r="L179" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M179" t="b">
         <v>1</v>
@@ -8557,13 +8559,13 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D180">
         <v>660.97000000000105</v>
@@ -8584,7 +8586,7 @@
         <v>0.70681000000000005</v>
       </c>
       <c r="L180" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M180" t="b">
         <v>1</v>
@@ -8592,13 +8594,13 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C181" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D181">
         <v>660.972000000001</v>
@@ -8619,7 +8621,7 @@
         <v>0.70677000000000001</v>
       </c>
       <c r="L181" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M181" t="b">
         <v>1</v>
@@ -8627,13 +8629,13 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C182" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D182">
         <v>660.97400000000096</v>
@@ -8654,7 +8656,7 @@
         <v>0.70684999999999998</v>
       </c>
       <c r="L182" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M182" t="b">
         <v>1</v>
@@ -8662,13 +8664,13 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D183">
         <v>660.97600000000102</v>
@@ -8689,7 +8691,7 @@
         <v>0.70682</v>
       </c>
       <c r="L183" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M183" t="b">
         <v>1</v>
@@ -8697,13 +8699,13 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C184" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D184">
         <v>660.97800000000097</v>
@@ -8724,7 +8726,7 @@
         <v>0.70674000000000003</v>
       </c>
       <c r="L184" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M184" t="b">
         <v>1</v>
@@ -8732,13 +8734,13 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D185">
         <v>660.98</v>
@@ -8759,7 +8761,7 @@
         <v>0.70676000000000005</v>
       </c>
       <c r="L185" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M185" t="b">
         <v>1</v>
@@ -8767,13 +8769,13 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D186">
         <v>660.98199999999997</v>
@@ -8794,7 +8796,7 @@
         <v>0.70676000000000005</v>
       </c>
       <c r="L186" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M186" t="b">
         <v>1</v>
@@ -8802,13 +8804,13 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B187" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C187" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D187">
         <v>660.98400000000004</v>
@@ -8829,7 +8831,7 @@
         <v>0.70679999999999998</v>
       </c>
       <c r="L187" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M187" t="b">
         <v>1</v>
@@ -8837,13 +8839,13 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C188" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D188">
         <v>660.98599999999999</v>
@@ -8864,7 +8866,7 @@
         <v>0.70681000000000005</v>
       </c>
       <c r="L188" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M188" t="b">
         <v>1</v>
@@ -8872,13 +8874,13 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D189">
         <v>660.98800000000006</v>
@@ -8899,7 +8901,7 @@
         <v>0.70682</v>
       </c>
       <c r="L189" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M189" t="b">
         <v>1</v>
@@ -8907,13 +8909,13 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C190" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D190">
         <v>660.99</v>
@@ -8928,7 +8930,7 @@
         <v>0.70674999999999999</v>
       </c>
       <c r="L190" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M190" t="b">
         <v>1</v>
@@ -8936,13 +8938,13 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B191" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C191" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D191">
         <v>660.99199999999996</v>
@@ -8963,7 +8965,7 @@
         <v>0.70672000000000001</v>
       </c>
       <c r="L191" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M191" t="b">
         <v>1</v>
@@ -8971,13 +8973,13 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C192" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D192">
         <v>660.99400000000003</v>
@@ -8998,7 +9000,7 @@
         <v>0.70681000000000005</v>
       </c>
       <c r="L192" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M192" t="b">
         <v>1</v>
@@ -9006,13 +9008,13 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C193" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D193">
         <v>660.99599999999998</v>
@@ -9033,7 +9035,7 @@
         <v>0.70677999999999996</v>
       </c>
       <c r="L193" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M193" t="b">
         <v>1</v>
@@ -9041,13 +9043,13 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D194">
         <v>660.99800000000005</v>
@@ -9068,7 +9070,7 @@
         <v>0.70686000000000004</v>
       </c>
       <c r="L194" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M194" t="b">
         <v>1</v>
@@ -9076,13 +9078,13 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D195">
         <v>661</v>
@@ -9103,7 +9105,7 @@
         <v>0.70689999999999997</v>
       </c>
       <c r="L195" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M195" t="b">
         <v>1</v>
@@ -9111,19 +9113,19 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D196">
         <v>734.79899999999998</v>
       </c>
       <c r="E196" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F196">
         <v>358.2</v>
@@ -9138,7 +9140,7 @@
         <v>0.70664000000000005</v>
       </c>
       <c r="L196" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M196" t="b">
         <v>0</v>
@@ -9146,19 +9148,19 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D197">
         <v>734.803</v>
       </c>
       <c r="E197" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F197">
         <v>353.1</v>
@@ -9173,7 +9175,7 @@
         <v>0.70652999999999999</v>
       </c>
       <c r="L197" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M197" t="b">
         <v>0</v>
@@ -9181,19 +9183,19 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C198" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D198">
         <v>734.80700000000002</v>
       </c>
       <c r="E198" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F198">
         <v>347.2</v>
@@ -9208,7 +9210,7 @@
         <v>0.70667000000000002</v>
       </c>
       <c r="L198" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M198" t="b">
         <v>0</v>
@@ -9216,19 +9218,19 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C199" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D199">
         <v>734.81100000000004</v>
       </c>
       <c r="E199" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F199">
         <v>341.8</v>
@@ -9243,7 +9245,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L199" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M199" t="b">
         <v>0</v>
@@ -9251,19 +9253,19 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D200">
         <v>734.81500000000005</v>
       </c>
       <c r="E200" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F200">
         <v>337.2</v>
@@ -9278,7 +9280,7 @@
         <v>0.70650999999999997</v>
       </c>
       <c r="L200" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M200" t="b">
         <v>0</v>
@@ -9286,19 +9288,19 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D201">
         <v>734.82</v>
       </c>
       <c r="E201" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F201">
         <v>331.2</v>
@@ -9313,7 +9315,7 @@
         <v>0.70648999999999995</v>
       </c>
       <c r="L201" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M201" t="b">
         <v>0</v>
@@ -9321,19 +9323,19 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C202" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D202">
         <v>734.82399999999996</v>
       </c>
       <c r="E202" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F202">
         <v>325.5</v>
@@ -9348,7 +9350,7 @@
         <v>0.70650000000000002</v>
       </c>
       <c r="L202" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M202" t="b">
         <v>0</v>
@@ -9356,19 +9358,19 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C203" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D203">
         <v>734.827</v>
       </c>
       <c r="E203" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F203">
         <v>321.2</v>
@@ -9383,7 +9385,7 @@
         <v>0.70648</v>
       </c>
       <c r="L203" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M203" t="b">
         <v>0</v>
@@ -9391,19 +9393,19 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C204" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D204">
         <v>734.83199999999999</v>
       </c>
       <c r="E204" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F204">
         <v>315.2</v>
@@ -9418,7 +9420,7 @@
         <v>0.70650000000000002</v>
       </c>
       <c r="L204" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M204" t="b">
         <v>0</v>
@@ -9426,19 +9428,19 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D205">
         <v>734.83500000000004</v>
       </c>
       <c r="E205" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F205">
         <v>311.7</v>
@@ -9453,7 +9455,7 @@
         <v>0.70648</v>
       </c>
       <c r="L205" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M205" t="b">
         <v>0</v>
@@ -9461,19 +9463,19 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D206">
         <v>734.84</v>
       </c>
       <c r="E206" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F206">
         <v>305.2</v>
@@ -9488,7 +9490,7 @@
         <v>0.70659000000000005</v>
       </c>
       <c r="L206" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M206" t="b">
         <v>0</v>
@@ -9496,19 +9498,19 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D207">
         <v>734.88800000000003</v>
       </c>
       <c r="E207" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F207">
         <v>242.8</v>
@@ -9523,7 +9525,7 @@
         <v>0.70682999999999996</v>
       </c>
       <c r="L207" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M207" t="b">
         <v>0</v>
@@ -9531,19 +9533,19 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B208" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D208">
         <v>734.94200000000001</v>
       </c>
       <c r="E208" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F208">
         <v>-39</v>
@@ -9558,7 +9560,7 @@
         <v>0.70660999999999996</v>
       </c>
       <c r="L208" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M208" t="b">
         <v>0</v>
@@ -9566,19 +9568,19 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B209" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D209">
         <v>734.94399999999996</v>
       </c>
       <c r="E209" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F209">
         <v>-40</v>
@@ -9593,7 +9595,7 @@
         <v>0.70640000000000003</v>
       </c>
       <c r="L209" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M209" t="b">
         <v>0</v>
@@ -9601,19 +9603,19 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C210" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D210">
         <v>734.947</v>
       </c>
       <c r="E210" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F210">
         <v>-41</v>
@@ -9628,7 +9630,7 @@
         <v>0.70643</v>
       </c>
       <c r="L210" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M210" t="b">
         <v>0</v>
@@ -9636,19 +9638,19 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C211" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D211">
         <v>734.95</v>
       </c>
       <c r="E211" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F211">
         <v>-42</v>
@@ -9663,7 +9665,7 @@
         <v>0.70643</v>
       </c>
       <c r="L211" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M211" t="b">
         <v>0</v>
@@ -9671,19 +9673,19 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C212" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D212">
         <v>734.95299999999997</v>
       </c>
       <c r="E212" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F212">
         <v>-43</v>
@@ -9698,7 +9700,7 @@
         <v>0.70670999999999995</v>
       </c>
       <c r="L212" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M212" t="b">
         <v>0</v>
@@ -9706,13 +9708,13 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B213" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C213" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D213">
         <v>735.08799999999997</v>
@@ -9730,7 +9732,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L213" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M213" t="b">
         <v>0</v>
@@ -9738,13 +9740,13 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B214" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C214" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D214">
         <v>735.11</v>
@@ -9762,7 +9764,7 @@
         <v>0.70655000000000001</v>
       </c>
       <c r="L214" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M214" t="b">
         <v>0</v>
@@ -9770,13 +9772,13 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C215" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D215">
         <v>739.94500000000005</v>
@@ -9794,7 +9796,7 @@
         <v>0.70696000000000003</v>
       </c>
       <c r="L215" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M215" t="b">
         <v>0</v>
@@ -9802,13 +9804,13 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C216" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D216">
         <v>740.40800000000002</v>
@@ -9826,7 +9828,7 @@
         <v>0.70672999999999997</v>
       </c>
       <c r="L216" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M216" t="b">
         <v>0</v>
@@ -9834,13 +9836,13 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C217" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D217">
         <v>740.74</v>
@@ -9858,7 +9860,7 @@
         <v>0.70672999999999997</v>
       </c>
       <c r="L217" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M217" t="b">
         <v>0</v>
@@ -9866,13 +9868,13 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C218" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D218">
         <v>740.91600000000005</v>
@@ -9890,7 +9892,7 @@
         <v>0.70676000000000005</v>
       </c>
       <c r="L218" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M218" t="b">
         <v>0</v>
@@ -9898,13 +9900,13 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C219" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D219">
         <v>741.49</v>
@@ -9922,7 +9924,7 @@
         <v>0.70682999999999996</v>
       </c>
       <c r="L219" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M219" t="b">
         <v>0</v>
@@ -9930,13 +9932,13 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C220" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D220">
         <v>741.57799999999997</v>
@@ -9954,7 +9956,7 @@
         <v>0.70665999999999995</v>
       </c>
       <c r="L220" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M220" t="b">
         <v>0</v>
@@ -9962,13 +9964,13 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B221" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C221" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D221">
         <v>743.07899999999995</v>
@@ -9986,7 +9988,7 @@
         <v>0.70684000000000002</v>
       </c>
       <c r="L221" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M221" t="b">
         <v>0</v>
@@ -9994,13 +9996,13 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D222">
         <v>743.34400000000005</v>
@@ -10018,7 +10020,7 @@
         <v>0.70669000000000004</v>
       </c>
       <c r="L222" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M222" t="b">
         <v>0</v>
@@ -10026,13 +10028,13 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B223" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C223" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D223">
         <v>745</v>
@@ -10050,7 +10052,7 @@
         <v>0.70711000000000002</v>
       </c>
       <c r="L223" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M223" t="b">
         <v>0</v>
@@ -10058,28 +10060,28 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D224">
         <v>635.1</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H224" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K224">
         <v>0.70775999999999994</v>
       </c>
       <c r="L224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M224" t="b">
         <v>0</v>
@@ -10087,28 +10089,28 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D225">
         <v>635.1</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H225" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K225">
         <v>0.70779999999999998</v>
       </c>
       <c r="L225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M225" t="b">
         <v>0</v>
@@ -10116,19 +10118,19 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D226">
         <v>635.1</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>1547</v>
@@ -10137,7 +10139,7 @@
         <v>0.70772999999999997</v>
       </c>
       <c r="L226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M226" t="b">
         <v>0</v>
@@ -10145,19 +10147,19 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D227">
         <v>635.1</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H227">
         <v>1552</v>
@@ -10166,7 +10168,7 @@
         <v>0.70794000000000001</v>
       </c>
       <c r="L227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M227" t="b">
         <v>0</v>
@@ -10174,28 +10176,28 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C228" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D228">
         <v>635.1</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H228" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K228">
         <v>0.70813999999999999</v>
       </c>
       <c r="L228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M228" t="b">
         <v>0</v>
@@ -10203,28 +10205,28 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D229">
         <v>635.1</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H229" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K229">
         <v>0.70796000000000003</v>
       </c>
       <c r="L229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M229" t="b">
         <v>0</v>
@@ -10232,28 +10234,28 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C230" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D230">
         <v>635.1</v>
       </c>
       <c r="E230" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H230" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K230">
         <v>0.70772999999999997</v>
       </c>
       <c r="L230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M230" t="b">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D231">
         <v>661.00080000000003</v>
@@ -10278,17 +10280,14 @@
       <c r="F231">
         <v>0.75</v>
       </c>
-      <c r="G231" t="s">
-        <v>100</v>
-      </c>
       <c r="H231" t="s">
+        <v>93</v>
+      </c>
+      <c r="K231" s="5">
+        <v>0.70536345319043747</v>
+      </c>
+      <c r="L231" t="s">
         <v>14</v>
-      </c>
-      <c r="K231">
-        <v>0.70344119299999996</v>
-      </c>
-      <c r="L231" t="s">
-        <v>15</v>
       </c>
       <c r="M231" t="b">
         <v>0</v>
@@ -10302,7 +10301,7 @@
         <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D232">
         <v>661.00080000000003</v>
@@ -10313,17 +10312,14 @@
       <c r="F232">
         <v>0.75</v>
       </c>
-      <c r="G232" t="s">
-        <v>100</v>
-      </c>
       <c r="H232" t="s">
+        <v>94</v>
+      </c>
+      <c r="K232" s="5">
+        <v>0.7059774085485776</v>
+      </c>
+      <c r="L232" t="s">
         <v>14</v>
-      </c>
-      <c r="K232">
-        <v>0.70345052799999996</v>
-      </c>
-      <c r="L232" t="s">
-        <v>15</v>
       </c>
       <c r="M232" t="b">
         <v>0</v>
@@ -10337,7 +10333,7 @@
         <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D233">
         <v>661.00080000000003</v>
@@ -10348,17 +10344,14 @@
       <c r="F233">
         <v>0.75</v>
       </c>
-      <c r="G233" t="s">
-        <v>100</v>
-      </c>
       <c r="H233" t="s">
+        <v>95</v>
+      </c>
+      <c r="K233" s="5">
+        <v>0.70555921050409554</v>
+      </c>
+      <c r="L233" t="s">
         <v>14</v>
-      </c>
-      <c r="K233">
-        <v>0.70344506900000003</v>
-      </c>
-      <c r="L233" t="s">
-        <v>15</v>
       </c>
       <c r="M233" t="b">
         <v>0</v>
@@ -10372,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="C234" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D234">
         <v>661.00080000000003</v>
@@ -10383,17 +10376,14 @@
       <c r="F234">
         <v>0.75</v>
       </c>
-      <c r="G234" t="s">
-        <v>100</v>
-      </c>
       <c r="H234" t="s">
+        <v>96</v>
+      </c>
+      <c r="K234" s="5">
+        <v>0.7049830753131805</v>
+      </c>
+      <c r="L234" t="s">
         <v>14</v>
-      </c>
-      <c r="K234">
-        <v>0.70343080000000002</v>
-      </c>
-      <c r="L234" t="s">
-        <v>15</v>
       </c>
       <c r="M234" t="b">
         <v>0</v>
@@ -10407,7 +10397,7 @@
         <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D235">
         <v>661.00080000000003</v>
@@ -10418,20 +10408,17 @@
       <c r="F235">
         <v>0.75</v>
       </c>
-      <c r="G235" t="s">
-        <v>101</v>
-      </c>
       <c r="H235" t="s">
-        <v>16</v>
-      </c>
-      <c r="K235">
-        <v>0.70614708900000001</v>
+        <v>97</v>
+      </c>
+      <c r="K235" s="5">
+        <v>0.70493803211177375</v>
       </c>
       <c r="L235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10442,7 +10429,7 @@
         <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D236">
         <v>661.00080000000003</v>
@@ -10453,17 +10440,14 @@
       <c r="F236">
         <v>0.75</v>
       </c>
-      <c r="G236" t="s">
-        <v>101</v>
-      </c>
       <c r="H236" t="s">
-        <v>17</v>
-      </c>
-      <c r="K236">
-        <v>0.70370166999999995</v>
+        <v>98</v>
+      </c>
+      <c r="K236" s="5">
+        <v>0.70361677033251291</v>
       </c>
       <c r="L236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M236" t="b">
         <v>0</v>
@@ -10477,7 +10461,7 @@
         <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D237">
         <v>661.00080000000003</v>
@@ -10488,17 +10472,14 @@
       <c r="F237">
         <v>0.75</v>
       </c>
-      <c r="G237" t="s">
-        <v>101</v>
-      </c>
       <c r="H237" t="s">
-        <v>18</v>
-      </c>
-      <c r="K237">
-        <v>0.70409405199999997</v>
+        <v>99</v>
+      </c>
+      <c r="K237" s="5">
+        <v>0.70358476514762058</v>
       </c>
       <c r="L237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M237" t="b">
         <v>0</v>
@@ -10512,7 +10493,7 @@
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D238">
         <v>661.00080000000003</v>
@@ -10523,17 +10504,14 @@
       <c r="F238">
         <v>0.75</v>
       </c>
-      <c r="G238" t="s">
-        <v>101</v>
-      </c>
       <c r="H238" t="s">
-        <v>19</v>
-      </c>
-      <c r="K238">
-        <v>0.70366163900000001</v>
+        <v>100</v>
+      </c>
+      <c r="K238" s="5">
+        <v>0.70356027965207313</v>
       </c>
       <c r="L238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M238" t="b">
         <v>0</v>
@@ -10547,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D239">
         <v>661.00080000000003</v>
@@ -10558,17 +10536,14 @@
       <c r="F239">
         <v>0.75</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>101</v>
       </c>
-      <c r="H239" t="s">
-        <v>20</v>
-      </c>
       <c r="K239">
-        <v>0.70357896799999997</v>
+        <v>0.70344099999999998</v>
       </c>
       <c r="L239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M239" t="b">
         <v>0</v>
@@ -10582,7 +10557,7 @@
         <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D240">
         <v>661.00080000000003</v>
@@ -10591,19 +10566,16 @@
         <v>13</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
-      </c>
-      <c r="G240" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="H240" t="s">
         <v>102</v>
       </c>
-      <c r="H240" t="s">
-        <v>21</v>
-      </c>
       <c r="K240">
-        <v>0.70388512000000003</v>
+        <v>0.70345100000000005</v>
       </c>
       <c r="L240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M240" t="b">
         <v>0</v>
@@ -10617,7 +10589,7 @@
         <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D241">
         <v>661.00080000000003</v>
@@ -10626,19 +10598,16 @@
         <v>13</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
-      </c>
-      <c r="G241" t="s">
-        <v>102</v>
+        <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K241">
-        <v>0.70366073200000001</v>
+        <v>0.70344499999999999</v>
       </c>
       <c r="L241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M241" t="b">
         <v>0</v>
@@ -10652,7 +10621,7 @@
         <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D242">
         <v>661.00080000000003</v>
@@ -10663,17 +10632,14 @@
       <c r="F242">
         <v>0.75</v>
       </c>
-      <c r="G242" t="s">
-        <v>100</v>
-      </c>
       <c r="H242" t="s">
+        <v>104</v>
+      </c>
+      <c r="K242">
+        <v>0.70343100000000003</v>
+      </c>
+      <c r="L242" t="s">
         <v>14</v>
-      </c>
-      <c r="K242">
-        <v>0.70363500400000001</v>
-      </c>
-      <c r="L242" t="s">
-        <v>23</v>
       </c>
       <c r="M242" t="b">
         <v>0</v>
@@ -10687,7 +10653,7 @@
         <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D243">
         <v>661.00080000000003</v>
@@ -10696,19 +10662,16 @@
         <v>13</v>
       </c>
       <c r="F243">
-        <v>0.75</v>
-      </c>
-      <c r="G243" t="s">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="s">
+        <v>16</v>
+      </c>
+      <c r="K243">
+        <v>0.70366099999999998</v>
+      </c>
+      <c r="L243" t="s">
         <v>14</v>
-      </c>
-      <c r="K243">
-        <v>0.70357976799999999</v>
-      </c>
-      <c r="L243" t="s">
-        <v>23</v>
       </c>
       <c r="M243" t="b">
         <v>0</v>
@@ -10722,7 +10685,7 @@
         <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D244">
         <v>661.00080000000003</v>
@@ -10731,25 +10694,16 @@
         <v>13</v>
       </c>
       <c r="F244">
-        <v>0.75</v>
-      </c>
-      <c r="G244" t="s">
-        <v>101</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="s">
-        <v>24</v>
-      </c>
-      <c r="I244">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="J244">
-        <v>-8.82</v>
+        <v>15</v>
       </c>
       <c r="K244">
-        <v>0.70360656300000002</v>
+        <v>0.70388499999999998</v>
       </c>
       <c r="L244" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M244" t="b">
         <v>0</v>
@@ -10763,34 +10717,31 @@
         <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D245">
-        <v>661.00080000000003</v>
+        <v>661.00189999999998</v>
       </c>
       <c r="E245" t="s">
         <v>13</v>
       </c>
       <c r="F245">
-        <v>0.75</v>
-      </c>
-      <c r="G245" t="s">
-        <v>101</v>
+        <v>0.1</v>
       </c>
       <c r="H245" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I245">
-        <v>-2.5499999999999998</v>
+        <v>-3.93</v>
       </c>
       <c r="J245">
-        <v>-8.82</v>
+        <v>-9.86</v>
       </c>
       <c r="K245">
-        <v>0.70366359499999998</v>
+        <v>0.703735</v>
       </c>
       <c r="L245" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M245" t="b">
         <v>0</v>
@@ -10804,28 +10755,31 @@
         <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D246">
-        <v>661.00080000000003</v>
+        <v>661.00160000000005</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
-      </c>
-      <c r="G246" t="s">
-        <v>102</v>
+        <v>0.2</v>
       </c>
       <c r="H246" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I246">
+        <v>-3.27</v>
+      </c>
+      <c r="J246">
+        <v>-10.8</v>
       </c>
       <c r="K246">
-        <v>0.70374221299999995</v>
+        <v>0.70362499999999994</v>
       </c>
       <c r="L246" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M246" t="b">
         <v>0</v>
@@ -10839,28 +10793,31 @@
         <v>12</v>
       </c>
       <c r="C247" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D247">
-        <v>661.00080000000003</v>
+        <v>661.00130000000001</v>
       </c>
       <c r="E247" t="s">
         <v>13</v>
       </c>
       <c r="F247">
-        <v>0.6</v>
-      </c>
-      <c r="G247" t="s">
-        <v>102</v>
+        <v>0.35</v>
       </c>
       <c r="H247" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="I247">
+        <v>-0.8</v>
+      </c>
+      <c r="J247">
+        <v>-9.32</v>
       </c>
       <c r="K247">
-        <v>0.70372161200000005</v>
+        <v>0.70361200000000002</v>
       </c>
       <c r="L247" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M247" t="b">
         <v>0</v>
@@ -10874,34 +10831,25 @@
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D248">
-        <v>661.00189999999998</v>
+        <v>661.00099999999998</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
       </c>
       <c r="F248">
-        <v>0.1</v>
-      </c>
-      <c r="G248" t="s">
-        <v>103</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="s">
-        <v>26</v>
-      </c>
-      <c r="I248">
-        <v>-3.93</v>
-      </c>
-      <c r="J248">
-        <v>-9.86</v>
+        <v>21</v>
       </c>
       <c r="K248">
-        <v>0.70373465899999998</v>
+        <v>0.70361700000000005</v>
       </c>
       <c r="L248" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M248" t="b">
         <v>0</v>
@@ -10915,37 +10863,34 @@
         <v>12</v>
       </c>
       <c r="C249" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D249">
-        <v>661.00160000000005</v>
+        <v>660.99900000000002</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
-      </c>
-      <c r="G249" t="s">
-        <v>103</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I249">
-        <v>-3.27</v>
+        <v>-1.02</v>
       </c>
       <c r="J249">
-        <v>-10.8</v>
+        <v>-1.61</v>
       </c>
       <c r="K249">
-        <v>0.70362497099999999</v>
+        <v>0.70657099999999995</v>
       </c>
       <c r="L249" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="M249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10956,37 +10901,34 @@
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D250">
-        <v>661.00130000000001</v>
+        <v>660.99800000000005</v>
       </c>
       <c r="E250" t="s">
         <v>13</v>
       </c>
       <c r="F250">
-        <v>0.35</v>
-      </c>
-      <c r="G250" t="s">
-        <v>103</v>
+        <v>0.7</v>
       </c>
       <c r="H250" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I250">
-        <v>-0.8</v>
+        <v>0.45</v>
       </c>
       <c r="J250">
-        <v>-9.32</v>
+        <v>-1</v>
       </c>
       <c r="K250">
-        <v>0.70361191499999998</v>
+        <v>0.70690299999999995</v>
       </c>
       <c r="L250" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="M250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10997,28 +10939,25 @@
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D251">
-        <v>661.00099999999998</v>
+        <v>661.00199999999995</v>
       </c>
       <c r="E251" t="s">
         <v>13</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
-      </c>
-      <c r="G251" t="s">
-        <v>103</v>
+        <v>0.1</v>
       </c>
       <c r="H251" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K251">
-        <v>0.70361660999999998</v>
+        <v>0.70341200000000004</v>
       </c>
       <c r="L251" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M251" t="b">
         <v>0</v>
@@ -11032,37 +10971,28 @@
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D252">
-        <v>660.99900000000002</v>
+        <v>661.00170000000003</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
       </c>
       <c r="F252">
-        <v>0.6</v>
-      </c>
-      <c r="G252" t="s">
-        <v>103</v>
+        <v>0.2</v>
       </c>
       <c r="H252" t="s">
-        <v>30</v>
-      </c>
-      <c r="I252">
-        <v>-1.02</v>
-      </c>
-      <c r="J252">
-        <v>-1.61</v>
+        <v>25</v>
       </c>
       <c r="K252">
-        <v>0.70657125799999998</v>
+        <v>0.70355599999999996</v>
       </c>
       <c r="L252" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11073,37 +11003,28 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D253">
-        <v>660.99800000000005</v>
+        <v>661.00139999999999</v>
       </c>
       <c r="E253" t="s">
         <v>13</v>
       </c>
       <c r="F253">
-        <v>0.7</v>
-      </c>
-      <c r="G253" t="s">
-        <v>103</v>
+        <v>0.3</v>
       </c>
       <c r="H253" t="s">
-        <v>31</v>
-      </c>
-      <c r="I253">
-        <v>0.45</v>
-      </c>
-      <c r="J253">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="K253">
-        <v>0.706903324</v>
+        <v>0.70359300000000002</v>
       </c>
       <c r="L253" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11114,28 +11035,25 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D254">
-        <v>661.00199999999995</v>
+        <v>661.00109999999995</v>
       </c>
       <c r="E254" t="s">
         <v>13</v>
       </c>
       <c r="F254">
-        <v>0.1</v>
-      </c>
-      <c r="G254" t="s">
-        <v>102</v>
+        <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K254">
-        <v>0.70341163500000004</v>
+        <v>0.70370600000000005</v>
       </c>
       <c r="L254" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M254" t="b">
         <v>0</v>
@@ -11149,31 +11067,28 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D255">
-        <v>661.00170000000003</v>
+        <v>661.00049999999999</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
       </c>
       <c r="F255">
-        <v>0.2</v>
-      </c>
-      <c r="G255" t="s">
-        <v>102</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K255">
-        <v>0.70355600699999998</v>
+        <v>0.70589299999999999</v>
       </c>
       <c r="L255" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="M255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11184,28 +11099,25 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D256">
-        <v>661.00139999999999</v>
+        <v>661.00019999999995</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
       </c>
       <c r="F256">
-        <v>0.3</v>
-      </c>
-      <c r="G256" t="s">
-        <v>102</v>
+        <v>1.3</v>
       </c>
       <c r="H256" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K256">
-        <v>0.70359263100000002</v>
+        <v>0.70391300000000001</v>
       </c>
       <c r="L256" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M256" t="b">
         <v>0</v>
@@ -11219,318 +11131,211 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D257">
-        <v>661.00109999999995</v>
+        <v>661</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
       </c>
       <c r="F257">
-        <v>0.4</v>
-      </c>
-      <c r="G257" t="s">
-        <v>102</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K257">
-        <v>0.70370561099999995</v>
+        <v>0.70404299999999997</v>
       </c>
       <c r="L257" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M257" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>12</v>
+      <c r="A258" t="s">
+        <v>65</v>
+      </c>
+      <c r="B258" t="s">
+        <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D258">
-        <v>661.00049999999999</v>
+        <v>661</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
       </c>
       <c r="F258">
-        <v>0.7</v>
-      </c>
-      <c r="G258" t="s">
-        <v>102</v>
-      </c>
-      <c r="H258" t="s">
-        <v>36</v>
+        <v>3.99</v>
+      </c>
+      <c r="I258">
+        <v>-1.96</v>
+      </c>
+      <c r="J258">
+        <v>-5.46</v>
       </c>
       <c r="K258">
-        <v>0.70589255100000003</v>
+        <v>0.70696499999999995</v>
       </c>
       <c r="L258" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M258" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>12</v>
+      <c r="A259" t="s">
+        <v>65</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D259">
-        <v>661.00019999999995</v>
+        <v>660.98</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
       </c>
       <c r="F259">
-        <v>1.3</v>
-      </c>
-      <c r="G259" t="s">
-        <v>102</v>
-      </c>
-      <c r="H259" t="s">
-        <v>37</v>
+        <v>4.95</v>
+      </c>
+      <c r="I259">
+        <v>-1.33</v>
+      </c>
+      <c r="J259">
+        <v>-5.43</v>
       </c>
       <c r="K259">
-        <v>0.70391286799999997</v>
+        <v>0.70684899999999995</v>
       </c>
       <c r="L259" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>12</v>
+      <c r="A260" t="s">
+        <v>65</v>
+      </c>
+      <c r="B260" t="s">
+        <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D260">
-        <v>661</v>
+        <v>660.96</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
       </c>
       <c r="F260">
-        <v>1.5</v>
-      </c>
-      <c r="G260" t="s">
-        <v>102</v>
-      </c>
-      <c r="H260" t="s">
-        <v>38</v>
+        <v>5.96</v>
+      </c>
+      <c r="I260">
+        <v>-1.01</v>
+      </c>
+      <c r="J260">
+        <v>-5.53</v>
       </c>
       <c r="K260">
-        <v>0.70404293699999998</v>
+        <v>0.70688799999999996</v>
       </c>
       <c r="L260" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C261" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D261">
-        <v>661</v>
+        <v>660.94</v>
       </c>
       <c r="E261" t="s">
         <v>13</v>
       </c>
       <c r="F261">
-        <v>3.99</v>
+        <v>9.94</v>
       </c>
       <c r="I261">
-        <v>-1.96</v>
+        <v>-1.03</v>
       </c>
       <c r="J261">
-        <v>-5.46</v>
+        <v>-5.72</v>
       </c>
       <c r="K261">
-        <v>0.70696499999999995</v>
+        <v>0.70698399999999995</v>
       </c>
       <c r="L261" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:13">
       <c r="A262" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B262" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C262" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D262">
-        <v>660.98</v>
+        <v>660.92</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
       </c>
       <c r="F262">
-        <v>4.95</v>
+        <v>11.97</v>
       </c>
       <c r="I262">
-        <v>-1.33</v>
+        <v>-0.92</v>
       </c>
       <c r="J262">
-        <v>-5.43</v>
+        <v>-6.07</v>
       </c>
       <c r="K262">
-        <v>0.70684899999999995</v>
+        <v>0.70698700000000003</v>
       </c>
       <c r="L262" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M262" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13">
-      <c r="A263" t="s">
-        <v>73</v>
-      </c>
-      <c r="B263" t="s">
-        <v>50</v>
-      </c>
-      <c r="C263" t="s">
-        <v>87</v>
-      </c>
-      <c r="D263">
-        <v>660.96</v>
-      </c>
-      <c r="E263" t="s">
-        <v>13</v>
-      </c>
-      <c r="F263">
-        <v>5.96</v>
-      </c>
-      <c r="I263">
-        <v>-1.01</v>
-      </c>
-      <c r="J263">
-        <v>-5.53</v>
-      </c>
-      <c r="K263">
-        <v>0.70688799999999996</v>
-      </c>
-      <c r="L263" t="s">
-        <v>23</v>
-      </c>
-      <c r="M263" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13">
-      <c r="A264" t="s">
-        <v>73</v>
-      </c>
-      <c r="B264" t="s">
-        <v>50</v>
-      </c>
-      <c r="C264" t="s">
-        <v>87</v>
-      </c>
-      <c r="D264">
-        <v>660.94</v>
-      </c>
-      <c r="E264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264">
-        <v>9.94</v>
-      </c>
-      <c r="I264">
-        <v>-1.03</v>
-      </c>
-      <c r="J264">
-        <v>-5.72</v>
-      </c>
-      <c r="K264">
-        <v>0.70698399999999995</v>
-      </c>
-      <c r="L264" t="s">
-        <v>23</v>
-      </c>
-      <c r="M264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13">
-      <c r="A265" t="s">
-        <v>73</v>
-      </c>
-      <c r="B265" t="s">
-        <v>50</v>
-      </c>
-      <c r="C265" t="s">
-        <v>87</v>
-      </c>
-      <c r="D265">
-        <v>660.92</v>
-      </c>
-      <c r="E265" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265">
-        <v>11.97</v>
-      </c>
-      <c r="I265">
-        <v>-0.92</v>
-      </c>
-      <c r="J265">
-        <v>-6.07</v>
-      </c>
-      <c r="K265">
-        <v>0.70698700000000003</v>
-      </c>
-      <c r="L265" t="s">
-        <v>23</v>
-      </c>
-      <c r="M265" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M260">
-    <sortCondition ref="C2:C260"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M257">
+    <sortCondition ref="C2:C257"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>